--- a/ddscs/doc/tests/performance/simpleDelay/Resultados.xlsx
+++ b/ddscs/doc/tests/performance/simpleDelay/Resultados.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="120" yWindow="45" windowWidth="24915" windowHeight="12810"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="28-11-12" sheetId="3" r:id="rId1"/>
+    <sheet name="27-11-2012" sheetId="2" r:id="rId2"/>
+    <sheet name="23-11-2012" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="20">
   <si>
     <t>Simple</t>
   </si>
@@ -40,13 +40,49 @@
   </si>
   <si>
     <t>RTI DDS</t>
+  </si>
+  <si>
+    <t>Ordenadores</t>
+  </si>
+  <si>
+    <t>Maquina virtual Fedora 17</t>
+  </si>
+  <si>
+    <t>Portatil i7</t>
+  </si>
+  <si>
+    <t>RPCDDS 4.5f sin keys</t>
+  </si>
+  <si>
+    <t>Sending 10000 iter of 500 bytes</t>
+  </si>
+  <si>
+    <t>RTI DDS 4.5f sin keys</t>
+  </si>
+  <si>
+    <t>Windows i7</t>
+  </si>
+  <si>
+    <t>Linux Core Duo T6600</t>
+  </si>
+  <si>
+    <t>Sending 10000 iter of 10 bytes</t>
+  </si>
+  <si>
+    <t>RPCDDS 4.5f sin keys without queries and filter</t>
+  </si>
+  <si>
+    <t>Sending 10000 iter of 100 bytes</t>
+  </si>
+  <si>
+    <t>Sending 10000 iter of 250 bytes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,16 +90,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -71,12 +121,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,113 +492,377 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="B2" t="s">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2"/>
+      <c r="B10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G10" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>0.46892479999999997</v>
-      </c>
-      <c r="C3">
-        <v>0.4596228</v>
-      </c>
-      <c r="D3">
-        <v>0.9285506</v>
-      </c>
-      <c r="E3">
-        <v>7.3975100000000002E-2</v>
-      </c>
-      <c r="F3">
-        <v>8.2400000000000001E-2</v>
-      </c>
-      <c r="G3">
-        <v>0.15639819999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0.72689440000000005</v>
-      </c>
-      <c r="C4">
-        <v>0.73605739999999997</v>
-      </c>
-      <c r="D4">
-        <v>1.4629840000000001</v>
-      </c>
-      <c r="E4">
-        <v>0.51029820000000004</v>
-      </c>
-      <c r="F4">
-        <v>0.52468420000000004</v>
-      </c>
-      <c r="G4">
-        <v>1.0349926</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0.5862136</v>
-      </c>
-      <c r="C5">
-        <v>0.56036680000000005</v>
-      </c>
-      <c r="D5">
-        <v>1.146628</v>
-      </c>
-      <c r="E5">
-        <v>0.22651080000000001</v>
-      </c>
-      <c r="F5">
-        <v>0.2313627</v>
-      </c>
-      <c r="G5">
-        <v>0.45192959999999999</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>1.9882</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>0.646065</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <v>3.9033899999999999</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>1.4521500000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2"/>
+      <c r="B18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
+        <v>2.6927699999999999</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1">
+        <v>1.0361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1">
+        <v>3.8963899999999998</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1">
+        <v>1.53115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2"/>
+      <c r="B27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1">
+        <v>4.4514500000000004</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1">
+        <v>1.3621399999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1">
+        <v>4.1184099999999999</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1">
+        <v>1.60216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2"/>
+      <c r="B36" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1">
+        <v>6.3296299999999999</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1">
+        <v>1.9501900000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1">
+        <v>4.3944400000000003</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1">
+        <v>1.5221499999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1">
+        <v>4.5934600000000003</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1">
+        <v>1.70817</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -486,24 +871,248 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2"/>
+      <c r="B10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>4.05</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>0.62</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2"/>
+      <c r="B10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.46892479999999997</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.4596228</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.9285506</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7.3975100000000002E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.15639819999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.72689440000000005</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.73605739999999997</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.4629840000000001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.51029820000000004</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.52468420000000004</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.0349926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.5862136</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.56036680000000005</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.146628</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.22651080000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.2313627</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.45192959999999999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ddscs/doc/tests/performance/simpleDelay/Resultados.xlsx
+++ b/ddscs/doc/tests/performance/simpleDelay/Resultados.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="22">
   <si>
     <t>Simple</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Sending 10000 iter of 250 bytes</t>
+  </si>
+  <si>
+    <t>4 clients sending 10000 iter of 500 bytes</t>
+  </si>
+  <si>
+    <t>4 clients sending 10000 iter of 10 bytes</t>
   </si>
 </sst>
 </file>
@@ -99,7 +105,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +115,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -190,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -198,6 +210,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -863,6 +876,269 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="2"/>
+      <c r="B51" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1">
+        <v>4.0884099999999997</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1">
+        <v>7.2807300000000001</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="2"/>
+      <c r="B60" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1">
+        <v>7.6827699999999997</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1">
+        <v>7.9027599999999998</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="2"/>
+      <c r="B69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1">
+        <v>11.5412</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1">
+        <v>10.048</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1">
+        <v>2.2428599999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
